--- a/simulation-project/output/entropy_results.xlsx
+++ b/simulation-project/output/entropy_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Universidad\Noveno semestre\Proyecto Avanzado II\advanced-project-ii-urban-morphology\simulation-project\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE9492-DE20-4FC7-85BA-C3D4C92E49BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8116833-7449-4758-BD71-728050521718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="5205" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,11 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,38 +220,41 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.70000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -255,38 +262,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>1.3859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.2116563994831289</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.7891183949346061</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.162725605141731</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.4355834941406922</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.4909739948661529</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.554270056953551</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.5499582285920992</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3.5270973541404511</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3.5387057084262681</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>3.5427697338664692</c:v>
                 </c:pt>
               </c:numCache>
@@ -503,7 +513,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0,000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1156,16 +1166,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1478,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,86 +1509,95 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.1</v>
-      </c>
-      <c r="B2">
-        <v>2.2116563994831289</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.3859999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.2</v>
-      </c>
-      <c r="B3">
-        <v>2.7891183949346061</v>
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.2116563994831289</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.3</v>
-      </c>
-      <c r="B4">
-        <v>3.162725605141731</v>
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.7891183949346061</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.4</v>
-      </c>
-      <c r="B5">
-        <v>3.4355834941406922</v>
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.162725605141731</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.5</v>
-      </c>
-      <c r="B6">
-        <v>3.4909739948661529</v>
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.4355834941406922</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.6</v>
-      </c>
-      <c r="B7">
-        <v>3.554270056953551</v>
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.4909739948661529</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="B8">
-        <v>3.5499582285920992</v>
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.554270056953551</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.8</v>
-      </c>
-      <c r="B9">
-        <v>3.5270973541404511</v>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.5499582285920992</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.9</v>
-      </c>
-      <c r="B10">
-        <v>3.5387057084262681</v>
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.5270973541404511</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.5387057084262681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="2">
         <v>3.5427697338664692</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>